--- a/other/Atcodersheet.xlsx
+++ b/other/Atcodersheet.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurikishuhei/Desktop/kyopuro/other/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurikishuhei/Documents/GitHub/kyopuro/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE57C7-8EF3-5847-B5A2-0722561E3457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30E887-DA31-5F4C-88D1-47CD65433B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="560" windowWidth="27920" windowHeight="17440" xr2:uid="{6FCB8EED-56FB-2644-BA51-6C44445335F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$C$16</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t xml:space="preserve">方針　問題 : </t>
     <rPh sb="0" eb="2">
@@ -45,22 +48,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>制約・計算量</t>
+    <t>サンプル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>制約</t>
     <rPh sb="0" eb="2">
       <t>セイヤク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ケイサッン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>手順・場合分け</t>
-    <rPh sb="0" eb="2">
-      <t>テジュッン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>バアイ</t>
+    <t>計算量</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサッン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -169,17 +170,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -203,6 +193,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -222,9 +223,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,10 +558,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="165" customHeight="1"/>
@@ -571,39 +572,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="20">
-      <c r="A1" s="4" t="s">
-        <v>1</v>
+      <c r="A1" s="9" t="s">
+        <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="80" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" ht="20">
+      <c r="A3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="80" customHeight="1">
+      <c r="A4" s="1"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="20">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="180" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-    </row>
-    <row r="3" spans="1:3" ht="180" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="180" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9"/>
-    </row>
-    <row r="5" spans="1:3" ht="180" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="80" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="20">
+      <c r="A7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="80" customHeight="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="20">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="80" customHeight="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="20">
+      <c r="A11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="80" customHeight="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="20">
+      <c r="A13" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="80" customHeight="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="20" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="80" customHeight="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/other/Atcodersheet.xlsx
+++ b/other/Atcodersheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kurikishuhei/Documents/GitHub/kyopuro/other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC30E887-DA31-5F4C-88D1-47CD65433B24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549FCC38-1B3B-3245-958B-FD11D4AC3596}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="560" windowWidth="27920" windowHeight="17440" xr2:uid="{6FCB8EED-56FB-2644-BA51-6C44445335F7}"/>
   </bookViews>
@@ -561,7 +561,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="165" customHeight="1"/>
@@ -684,6 +684,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="91" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="4"/>
 </worksheet>
 </file>